--- a/data/trans_media/IQ3001_MoAR-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ3001_MoAR-Estudios-trans_media.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según la edad en meses en la que empezaron a comer cereales sin gluten</t>
+          <t>Meses en la que empezaron a comer cereales sin gluten</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,49</t>
+          <t>4,84; 8,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 6,42</t>
+          <t>5,01; 6,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,55</t>
+          <t>4,61; 7,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 5,37</t>
+          <t>4,42; 5,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,54</t>
+          <t>4,0; 8,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,69</t>
+          <t>4,85; 5,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,28</t>
+          <t>4,77; 7,38</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 4,99</t>
+          <t>4,16; 5,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,49</t>
+          <t>4,79; 5,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,64</t>
+          <t>4,81; 5,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 4,76</t>
+          <t>4,22; 4,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 5,53</t>
+          <t>4,81; 5,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 6,45</t>
+          <t>5,36; 6,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 4,78</t>
+          <t>4,3; 4,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 5,42</t>
+          <t>4,9; 5,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 5,86</t>
+          <t>5,17; 5,85</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 4,59</t>
+          <t>3,86; 4,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,16</t>
+          <t>4,48; 5,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,95</t>
+          <t>5,24; 6,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,13</t>
+          <t>4,01; 5,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,07</t>
+          <t>4,88; 6,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,08</t>
+          <t>5,02; 6,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 4,74</t>
+          <t>4,07; 4,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 5,4</t>
+          <t>4,79; 5,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 6,23</t>
+          <t>5,24; 6,27</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 5,02</t>
+          <t>4,34; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 5,39</t>
+          <t>4,84; 5,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 5,95</t>
+          <t>5,11; 5,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 4,73</t>
+          <t>4,25; 4,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 5,49</t>
+          <t>4,92; 5,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 6,11</t>
+          <t>5,33; 6,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 4,79</t>
+          <t>4,36; 4,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 5,34</t>
+          <t>4,95; 5,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 5,87</t>
+          <t>5,3; 5,87</t>
         </is>
       </c>
     </row>
